--- a/DA_Svietashova_diagramma.xlsx
+++ b/DA_Svietashova_diagramma.xlsx
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,10 +107,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,24 +201,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,102 +314,102 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>1736241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>13595183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>64156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>19607525</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>10690741</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>3599502</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>548999</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>609641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>1871162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>2210840</v>
       </c>
     </row>

--- a/DA_Svietashova_diagramma.xlsx
+++ b/DA_Svietashova_diagramma.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Вид помощи</t>
   </si>
   <si>
-    <t xml:space="preserve">Сумма, крон</t>
+    <t xml:space="preserve">Сумма, тыс.крон</t>
   </si>
   <si>
     <t xml:space="preserve">Помощь за границу</t>
@@ -314,7 +314,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
